--- a/result/manpower2.xlsx
+++ b/result/manpower2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="480" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="480" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>15 - 24 歲</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>Non temporary or dispatched workers</t>
+  </si>
+  <si>
+    <t>Part-time, temporary or dispatched workers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -621,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1047,7 +1051,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K20" s="29" t="s">
         <v>36</v>
